--- a/opt/static/uploads/John/test1.xlsx
+++ b/opt/static/uploads/John/test1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edinsonrivera/Documents/Python test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edinsonrivera/Desktop/sapp/opt/static/uploads/John/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19B0106-D395-BF40-B0CC-B276BE8B811D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -436,11 +437,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -498,7 +499,7 @@
         <v>21</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -524,7 +525,7 @@
         <v>22</v>
       </c>
       <c r="H3">
-        <v>120</v>
+        <v>120.65</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
